--- a/数据整理/stocks/A股/深证主板/002405-四维图新.xlsx
+++ b/数据整理/stocks/A股/深证主板/002405-四维图新.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>90.66</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.22</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1891</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.89</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.91</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,25 +634,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161631</t>
+          <t>010955</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>融通中证人工智能主题指数(LOF)A</t>
+          <t>天弘中证智能汽车主题指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2724</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -622,25 +672,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009239</t>
+          <t>515250</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>融通中证人工智能主题指数(LOF)C</t>
+          <t>富国中证智能汽车主题ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2490</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -650,26 +710,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010764</t>
+          <t>010956</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>九泰锐升18个月封闭运作混合</t>
+          <t>天弘中证智能汽车主题指数C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>33.54</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2299</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -678,26 +748,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010955</t>
+          <t>512720</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天弘中证智能汽车主题指数A</t>
+          <t>国泰中证计算机主题ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>95.02</t>
+          <t>9.91</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2269</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -706,25 +786,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010956</t>
+          <t>161631</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天弘中证智能汽车主题指数C</t>
+          <t>融通中证人工智能主题指数(LOF)A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>95.02</t>
+          <t>8.40</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2058</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
     </row>
@@ -734,26 +824,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>512720</t>
+          <t>515400</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国泰中证计算机主题ETF</t>
+          <t>富国中证大数据产业ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>99.25</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1831</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -762,26 +862,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>512930</t>
+          <t>159852</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>平安中证人工智能主题ETF</t>
+          <t>嘉实中证软件服务ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>98.00</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>97.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1585</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -790,26 +900,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>515250</t>
+          <t>515980</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富国中证智能汽车主题ETF</t>
+          <t>华富中证人工智能产业ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>98.80</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1546</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -818,26 +938,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>515400</t>
+          <t>010764</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>富国中证大数据产业ETF</t>
+          <t>九泰锐升18个月封闭运作混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>98.90</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
+          <t>33.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1418</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -846,26 +976,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>515980</t>
+          <t>161033</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华富中证人工智能产业ETF</t>
+          <t>富国中证智能汽车指数(LOF)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>99.47</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>159852</t>
+          <t>009531</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>嘉实中证软件服务ETF</t>
+          <t>九泰锐和18个月定期开放混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>97.55</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
+          <t>56.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>161033</t>
+          <t>512930</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>富国中证智能汽车指数(LOF)</t>
+          <t>平安中证人工智能主题ETF</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>92.66</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009531</t>
+          <t>009239</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>九泰锐和18个月定期开放混合</t>
+          <t>融通中证人工智能主题指数(LOF)C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>56.07</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>4</v>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002405-四维图新.xlsx
+++ b/数据整理/stocks/A股/深证主板/002405-四维图新.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1125,4 +1126,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010764</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>九泰锐升18个月封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1463</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1301</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009531</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>九泰锐和18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>67.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002405-四维图新.xlsx
+++ b/数据整理/stocks/A股/深证主板/002405-四维图新.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1410,4 +1411,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010764</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>九泰锐升18个月封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009531</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>九泰锐和18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159899</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证全指软件交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002405-四维图新.xlsx
+++ b/数据整理/stocks/A股/深证主板/002405-四维图新.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1619,4 +1620,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002405-四维图新.xlsx
+++ b/数据整理/stocks/A股/深证主板/002405-四维图新.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1628,7 +1629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1639,17 +1640,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1659,14 +1680,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.3</v>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.4700</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1675,14 +1718,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.6</v>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4636</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1691,14 +1756,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.09</v>
+          <t>610004</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达澳银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4428</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1707,13 +1794,1557 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4125</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2912</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>610006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银产业升级混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2573</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005983</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根核心精选股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2499</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2252</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2201</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1825</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1814</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1776</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1755</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008381</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1594</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011832</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1575</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159889</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1413</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159899</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商中证全指软件交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1356</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1324</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>168002</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1276</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1220</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1216</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002634</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华宝未来主导产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>97.75</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0814</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>501097</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>43.03</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159888</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏中证智能汽车主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011833</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159872</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华中证车联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>96.87</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>673081</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>51.25</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005482</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>673083</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>51.25</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004320</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>前海开源沪港深乐享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>95.98</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005483</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>159702</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇添富中证人工智能主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>41</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.3</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002405-四维图新.xlsx
+++ b/数据整理/stocks/A股/深证主板/002405-四维图新.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3243,7 +3244,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3254,17 +3255,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3274,14 +3295,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>41</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14.63</v>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.7854</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -3290,14 +3333,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>51.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4412</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.3</v>
       </c>
     </row>
     <row r="4">
@@ -3306,14 +3371,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.6</v>
+          <t>001694</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1180</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -3322,14 +3409,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>13</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.09</v>
+          <t>010420</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>民生加银成长优选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>42.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0943</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -3338,13 +3447,3283 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安智能生活混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5903</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>166006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>54.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5886</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001886</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>54.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5886</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010213</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>48.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4209</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009872</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>44.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2471</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000136</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1602</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008375</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>35.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9655</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005275</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>34.48</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9275</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009659</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9090</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007460</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安成长创新混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6288</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.78</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5427</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014420</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧成长领航一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>24.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>50.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4901</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010116</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.32</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4894</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.51</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4658</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4190</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519909</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安安顺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3793</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3419</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3265</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005276</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.71</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2881</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010214</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2578</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009660</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>76.41</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2525</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2365</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2317</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004231</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2148</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1812</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1726</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1691</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009873</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1456</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1447</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1373</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1357</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1247</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>74.02</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1159</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>360011</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>光大保德信动态优选混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>71.83</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1070</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>398041</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中海量化策略混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014421</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中欧成长领航一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>50.50</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010534</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发均衡增长混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>30.75</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>46.63</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0953</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007854</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>光大保德信景气先锋混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>72.20</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011832</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>159613</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>嘉实中证信息安全主题ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>99.01</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>159899</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>招商中证全指软件交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>98.64</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>159889</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国泰中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>96.09</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010117</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>79.32</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>159888</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华夏中证智能汽车主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011833</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>77.26</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010570</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004397</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长盛信息安全量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>29.75</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>60.02</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>360012</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>光大保德信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010571</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>43.17</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011839</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002631</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>43.17</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>159872</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>鹏华中证车联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>96.38</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005027</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>光大保德信多策略优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>37.88</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>008376</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011840</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>96.93</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011214</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>招商惠润一年定期开放混合型发起式管理人中管理人（MOM）证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>81.20</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>004320</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>前海开源沪港深乐享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>002564</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>新沃通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001795</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>上投摩根文体休闲灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>74.91</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>673081</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009709</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>79.10</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>002303</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>金鹰智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>159702</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>汇添富中证人工智能主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010535</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>广发均衡增长混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>46.63</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>673083</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001866</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>北信瑞丰新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011215</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>招商惠润一年定期开放混合型发起式管理人中管理人（MOM）证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>81.20</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>87</v>
+      </c>
+      <c r="D2" t="n">
+        <v>35.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>41</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.3</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002405-四维图新.xlsx
+++ b/数据整理/stocks/A股/深证主板/002405-四维图新.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6606,7 +6607,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6617,17 +6618,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6637,14 +6658,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>87</v>
-      </c>
-      <c r="D2" t="n">
-        <v>35.73</v>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>123.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.0678</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -6653,14 +6696,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>41</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.63</v>
+          <t>010420</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>民生加银成长优选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5304</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -6669,14 +6734,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.3</v>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>55.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4867</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -6685,14 +6772,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.6</v>
+          <t>001694</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>45.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1141</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -6701,14 +6810,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>13</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.09</v>
+          <t>011578</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>32.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7675</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -6717,13 +6848,3071 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>000136</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4317</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安智能生活混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2098</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009659</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.56</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0858</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013157</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7956</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5689</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007460</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安成长创新混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5598</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010116</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.98</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4993</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501083</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华科创主题 3 年封闭运作灵活配置混合型证券投资</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.68</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>62.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4987</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.78</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4863</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4022</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013621</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安智能生活混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3158</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009660</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3013</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2811</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013331</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2811</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2599</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2523</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011579</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2520</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2395</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006058</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>民生加银新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2262</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2098</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1943</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1913</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>515750</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国中证科技50策略ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1567</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>501200</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>民生加银科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1509</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>26.42</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1427</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1383</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1329</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1217</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>98.33</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005313</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1119</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011832</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0960</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>360011</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>光大保德信动态优选混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>77.54</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013292</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007854</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>光大保德信景气先锋混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>77.45</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>98.17</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013620</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>159613</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉实中证信息安全主题ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>159899</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商中证全指软件交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159889</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国泰中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>96.35</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010117</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>82.98</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005314</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>159888</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏中证智能汽车主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011833</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010570</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>360012</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>光大保德信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>97.43</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005027</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>光大保德信多策略优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>56.79</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010571</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>159872</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>鹏华中证车联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>96.73</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011839</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>517800</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>方正富邦中证沪港深人工智能50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>96.37</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011840</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>004320</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>前海开源沪港深乐享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>013083</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009709</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001795</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>上投摩根文体休闲灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>159702</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>汇添富中证人工智能主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>002564</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>新沃通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>004397</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>长盛信息安全量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>66.48</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>82.34</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010991</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>82</v>
+      </c>
+      <c r="D2" t="n">
+        <v>28.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>87</v>
+      </c>
+      <c r="D3" t="n">
+        <v>35.73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>41</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.3</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002405-四维图新.xlsx
+++ b/数据整理/stocks/A股/深证主板/002405-四维图新.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="D2" t="n">
-        <v>28.08</v>
+        <v>15.35</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D3" t="n">
-        <v>35.73</v>
+        <v>28.08</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="D4" t="n">
-        <v>14.63</v>
+        <v>35.73</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3</v>
+        <v>14.63</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>2.09</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>13</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -600,6 +617,2304 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>540008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信低碳先锋股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8863</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>48.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9586</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001694</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>38.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5662</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011578</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1363</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安智能生活混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0413</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007460</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安成长创新混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5336</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>103.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4842</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4227</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501083</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华科创主题灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3819</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>560010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>64.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3020</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159633</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>61.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2869</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2842</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013621</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安智能生活混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2613</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159629</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>54.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2549</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011579</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2183</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1933</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>40.75</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1874</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1596</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1367</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013511</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇丰晋信低碳先锋股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1095</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1025</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>97.91</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013292</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>673090</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>西部利得个股精选股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>560110</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>13.42</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>97.42</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013620</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013262</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>西部利得个股精选股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159888</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.66</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159613</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实中证信息安全主题ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159889</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>97.21</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159899</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>159795</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇添富中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>97.76</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>97.60</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>159872</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华中证车联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011840</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>517800</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>方正富邦中证沪港深AI50ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>95.99</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>013083</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004320</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>前海开源沪港深乐享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>71.16</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>159702</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇添富中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>66.92</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011839</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>66.92</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>016099</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华安成长创新混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>014972</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>016033</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3771,7 +6086,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7133,7 +9448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8747,7 +11062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8955,7 +11270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9239,7 +11554,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9789,7 +12104,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002405-四维图新.xlsx
+++ b/数据整理/stocks/A股/深证主板/002405-四维图新.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D2" t="n">
-        <v>15.35</v>
+        <v>11.68</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="D3" t="n">
-        <v>28.08</v>
+        <v>15.35</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D4" t="n">
-        <v>35.73</v>
+        <v>28.08</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="D5" t="n">
-        <v>14.63</v>
+        <v>35.73</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3</v>
+        <v>14.63</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>2.09</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>13</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -616,7 +633,1867 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>580001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东吴嘉禾优势精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1891</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>540008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信低碳先锋股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>75.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8412</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>540003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>67.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1289</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011578</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0833</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>106.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4456</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501083</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华科创主题灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3642</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3074</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>560010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>67.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2823</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>62.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2609</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159629</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>59.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2492</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159633</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>58.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2463</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011579</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2098</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2045</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2033</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1857</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1733</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1574</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>960003</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合H</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1460</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1260</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013511</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇丰晋信低碳先锋股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013262</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>西部利得个股精选股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>673090</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>西部利得个股精选股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1091</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1055</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013292</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>97.48</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>016335</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159889</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国泰中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159888</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159613</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实中证信息安全主题ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159899</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159795</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇添富中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>97.89</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159872</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华中证车联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>97.70</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>560110</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>97.92</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013083</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>016033</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2914,7 +4791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6086,7 +7963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9448,7 +11325,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11062,7 +12939,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11270,7 +13147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11554,7 +13431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12102,136 +13979,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>580001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东吴嘉禾优势精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.66</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1891</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>161033</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国中证智能汽车指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.89</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1150</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>